--- a/cfg/任务成就.xlsx
+++ b/cfg/任务成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -266,16 +266,16 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.task.TaskType</t>
+    <t>wxdgaming.spring.gamebase.entity.TaskType</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.boot.core.lang.task.Condition</t>
-  </si>
-  <si>
-    <t>List&lt;wxdgaming.chargame.server.bean.bag.ItemCfg&gt;</t>
+    <t>wxdgaming.spring.boot.core.lang.task.Condition</t>
+  </si>
+  <si>
+    <t>List&lt;wxdgaming.spring.gamebase.entity.ItemCfg&gt;</t>
   </si>
   <si>
     <t>主键id</t>
@@ -1475,13 +1475,13 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
@@ -1491,7 +1491,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:10">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:10">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:10">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:10">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:10">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2297,10 +2297,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2315,7 +2315,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2398,14 +2398,14 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2925,7 +2925,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="C25:C1048576">
     <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="102133005">
